--- a/medicine/Mort/Cimetière_d'Aoyama/Cimetière_d'Aoyama.xlsx
+++ b/medicine/Mort/Cimetière_d'Aoyama/Cimetière_d'Aoyama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Aoyama (青山霊園, Aoyama reien?) est un cimetière situé dans le quartier de Minato à Tokyo au Japon et géré par le gouvernement métropolitain de Tokyo. Le cimetière, célèbre pour ses cerisiers en fleurs, est très visité pendant la saison du hanami.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière se trouve à l'origine sur une terre de la famille Aoyama faisait partie du clan Gujō dans la province de Mino (aujourd'hui dans la ville de Gifu). Ce fut le premier cimetière public du Japon.
 Il a une superficie de 260 000 m2.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Section japonaise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La section japonaise comprend les tombes de nombreuses personnalités dont :
 Gotō Shōjirō
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Section étrangère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le cimetière comprend une partie pour les étrangers où l'on trouve notamment la tombe de :
 Francis Brinkley (1841–1912) journaliste et universitaire.
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>Tombe de Hachiko</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'une des tombes les plus célèbres du cimetière est celle de Hachikō, le célèbre chien dont la statue trône à la gare de Shibuya. Hachikō est célèbre car, de 1925 jusqu'à sa mort (en 1935), il a attendu chaque jour son maître décédé, à la gare de shibuya.  </t>
         </is>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Aoyama</t>
+          <t>Cimetière_d'Aoyama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,7 +681,9 @@
           <t>Section Tateyama</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a aussi une section Tateyama où sont inhumés Tetsuzan Nagata, Heitarō Kimura et Sagara Sōzō.
 </t>
